--- a/Daily_Updates.xlsx
+++ b/Daily_Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\React\todo-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F542798-DEA3-4B4A-84D8-CF42203EAD67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8412222-12EC-4DFE-B931-790D395EA31C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{55B4356C-45EC-431D-B3DE-55A6568E0029}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Daily Updates</t>
   </si>
@@ -37,6 +37,12 @@
   </si>
   <si>
     <t>Started with the project, added to the repo, will be working on it, at this point I have no idea of Ajax but will learn in the process</t>
+  </si>
+  <si>
+    <t>Hrs of Work</t>
+  </si>
+  <si>
+    <t>1 hr</t>
   </si>
 </sst>
 </file>
@@ -87,18 +93,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,43 +424,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8507145F-C37A-4225-941A-61B884F5C019}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="2" max="2" width="151.33203125" customWidth="1"/>
+    <col min="1" max="2" width="13.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="151.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="4"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
         <v>44108</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Daily_Updates.xlsx
+++ b/Daily_Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\React\todo-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8412222-12EC-4DFE-B931-790D395EA31C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E703440-6F06-4BA8-8EFC-98F4B818B5B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{55B4356C-45EC-431D-B3DE-55A6568E0029}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Daily Updates</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>1 hr</t>
+  </si>
+  <si>
+    <t>3 hr</t>
+  </si>
+  <si>
+    <t>Implemented sign in and sign up component with FB</t>
   </si>
 </sst>
 </file>
@@ -101,13 +107,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -424,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8507145F-C37A-4225-941A-61B884F5C019}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -437,11 +443,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -455,14 +461,25 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
+      <c r="A3" s="3">
         <v>44108</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>44109</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
